--- a/Generate_Salary_Report/Problem_Statement.xlsx
+++ b/Generate_Salary_Report/Problem_Statement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thoufiq/THOUFIQ/techTFQ/YouTube/VIDEOS/30 SQL Interview Queries/Video_Q5/Video_Q5_Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\30DaySQLQueryChallenge - techTFQ\Generate_Salary_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB33F5D-2BAC-7540-918C-BEBEEC66368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9C4AD8-173D-490B-91B2-5575661F40BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{3E701F9B-0C77-FB42-A7A5-55877E5CAD52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{3E701F9B-0C77-FB42-A7A5-55877E5CAD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -123,29 +121,6 @@
   </si>
   <si>
     <t>SALARY</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Video #5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Generate salary report</t>
-    </r>
   </si>
   <si>
     <r>
@@ -174,6 +149,29 @@
   </si>
   <si>
     <t>EXPECTED OUTPUT - SALARY REPORT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Generate salary report</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -485,15 +483,6 @@
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,14 +535,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,613 +889,614 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E5819A-A376-F346-915C-93B4E723D0CD}">
   <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="9" width="12.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="9" width="12.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.796875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="26" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:13" s="23" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-    </row>
-    <row r="2" spans="2:13" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="G5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="2:13" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="28"/>
-    </row>
-    <row r="4" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="18">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="19">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="15">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="15">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="18">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="G12" s="15">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="18">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>100</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4</v>
+      </c>
+      <c r="G15" s="15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="19">
+        <v>6</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G17" s="15">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="15">
+        <v>3</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="18">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="17">
+        <v>5</v>
+      </c>
+      <c r="G21" s="15">
+        <v>3</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="18">
+        <v>6</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="19">
+        <v>4</v>
+      </c>
+      <c r="G23" s="15">
+        <v>2</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="16">
+        <v>3</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="19">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="20">
+        <v>6000</v>
+      </c>
+      <c r="D28" s="20">
+        <v>240</v>
+      </c>
+      <c r="E28" s="20">
+        <v>360</v>
+      </c>
+      <c r="F28" s="20">
+        <v>6600</v>
+      </c>
+      <c r="G28" s="20">
+        <v>300</v>
+      </c>
+      <c r="H28" s="20">
+        <v>360</v>
+      </c>
+      <c r="I28" s="20">
+        <v>240</v>
+      </c>
+      <c r="J28" s="20">
+        <v>900</v>
+      </c>
+      <c r="K28" s="17">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="21">
+        <v>7000</v>
+      </c>
+      <c r="D29" s="21">
+        <v>280</v>
+      </c>
+      <c r="E29" s="21">
+        <v>420</v>
+      </c>
+      <c r="F29" s="21">
+        <v>7700</v>
+      </c>
+      <c r="G29" s="21">
+        <v>350</v>
+      </c>
+      <c r="H29" s="21">
+        <v>420</v>
+      </c>
+      <c r="I29" s="21">
+        <v>280</v>
+      </c>
+      <c r="J29" s="21">
+        <v>1050</v>
+      </c>
+      <c r="K29" s="18">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20">
+      <c r="C30" s="22">
         <v>5000</v>
       </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="20">
+      <c r="D30" s="22">
+        <v>200</v>
+      </c>
+      <c r="E30" s="22">
+        <v>300</v>
+      </c>
+      <c r="F30" s="22">
+        <v>5500</v>
+      </c>
+      <c r="G30" s="22">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="18">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="21">
-        <v>6000</v>
-      </c>
-      <c r="G8" s="18">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="H30" s="22">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="22">
-        <v>7000</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="21">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="I30" s="22">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="18">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="21">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="G12" s="18">
-        <v>3</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="21">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="17">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="20">
-        <v>100</v>
-      </c>
-      <c r="G14" s="18">
-        <v>2</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="18">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21">
-        <v>4</v>
-      </c>
-      <c r="G15" s="18">
-        <v>3</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="22">
-        <v>6</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="21">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G17" s="18">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="21">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="18">
-        <v>3</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="21">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="18">
-        <v>2</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="21">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="20">
-        <v>5</v>
-      </c>
-      <c r="G21" s="18">
-        <v>3</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="21">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="18">
-        <v>2</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="21">
-        <v>6</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="21">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19">
-        <v>3</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="22">
-        <v>4</v>
-      </c>
-      <c r="G23" s="18">
-        <v>2</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="21">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="19">
-        <v>3</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="22">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="23">
-        <v>6000</v>
-      </c>
-      <c r="D28" s="23">
-        <v>240</v>
-      </c>
-      <c r="E28" s="23">
-        <v>360</v>
-      </c>
-      <c r="F28" s="23">
-        <v>6600</v>
-      </c>
-      <c r="G28" s="23">
-        <v>300</v>
-      </c>
-      <c r="H28" s="23">
-        <v>360</v>
-      </c>
-      <c r="I28" s="23">
-        <v>240</v>
-      </c>
-      <c r="J28" s="23">
-        <v>900</v>
-      </c>
-      <c r="K28" s="20">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="24">
-        <v>7000</v>
-      </c>
-      <c r="D29" s="24">
-        <v>280</v>
-      </c>
-      <c r="E29" s="24">
-        <v>420</v>
-      </c>
-      <c r="F29" s="24">
-        <v>7700</v>
-      </c>
-      <c r="G29" s="24">
-        <v>350</v>
-      </c>
-      <c r="H29" s="24">
-        <v>420</v>
-      </c>
-      <c r="I29" s="24">
-        <v>280</v>
-      </c>
-      <c r="J29" s="24">
-        <v>1050</v>
-      </c>
-      <c r="K29" s="21">
-        <v>6650</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="25">
-        <v>5000</v>
-      </c>
-      <c r="D30" s="25">
-        <v>200</v>
-      </c>
-      <c r="E30" s="25">
-        <v>300</v>
-      </c>
-      <c r="F30" s="25">
-        <v>5500</v>
-      </c>
-      <c r="G30" s="25">
-        <v>250</v>
-      </c>
-      <c r="H30" s="25">
-        <v>300</v>
-      </c>
-      <c r="I30" s="25">
-        <v>200</v>
-      </c>
-      <c r="J30" s="25">
+      <c r="J30" s="22">
         <v>750</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="19">
         <v>4750</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B26:K26"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="B26:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>